--- a/medicine/Enfance/Joseph_Jacquin/Joseph_Jacquin.xlsx
+++ b/medicine/Enfance/Joseph_Jacquin/Joseph_Jacquin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Jacquin, né le 23 novembre 1866 à  Saint-Bonnet-Tronçais (Allier) et mort le 9 janvier 1949 à Paris 7e, est un journaliste et dramaturge français.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Collaborateur chez les éditions Hachette, Joseph Jacquin est le rédacteur en chef du périodique illustré pour enfants Mon journal et du magazine d'actualité Lectures pour tous[1].
-Outre sa carrière de journaliste, il écrit de nombreux romans et pièces de théâtre quasiment exclusivement à quatre mains, en collaboration notamment avec Davin de Champclos, Henry de Gorsse, Aristide Fabre ou encore Hervé de Peslouan[1] .
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Collaborateur chez les éditions Hachette, Joseph Jacquin est le rédacteur en chef du périodique illustré pour enfants Mon journal et du magazine d'actualité Lectures pour tous.
+Outre sa carrière de journaliste, il écrit de nombreux romans et pièces de théâtre quasiment exclusivement à quatre mains, en collaboration notamment avec Davin de Champclos, Henry de Gorsse, Aristide Fabre ou encore Hervé de Peslouan .
 Entre 1903 et 1922, Joseph Jacquin adapte une dizaine albums de Graham Clifton Bingham et George Henri Thompson : Train de plaisir ! ; Messieurs les animaux en voiture ; Les Animaux en pique-nique ; La Guerre des animaux ; Messieurs les animaux s’amusent ; Les Vacances au pays des animaux ; Noël au pays des animaux ; Fêtes nautiques chez les animaux ; Les Animaux en aéroplane ; Les Animaux à la ville ; Les Animaux chercheurs d’or. 
-Il publie certains de ces textes dans les revues qu'il dirige, à l'instar de sa série consacrée aux « Petites filles du temps passé » : douze récits[2] qu'il publie initialement sous le pseudonyme de Jean Castine, dont Kra-Gul, une petite fille à l'âge de pierre et Grite, une petite fille à l'âge de bronze dans le périodique Mon journal[3].
+Il publie certains de ces textes dans les revues qu'il dirige, à l'instar de sa série consacrée aux « Petites filles du temps passé » : douze récits qu'il publie initialement sous le pseudonyme de Jean Castine, dont Kra-Gul, une petite fille à l'âge de pierre et Grite, une petite fille à l'âge de bronze dans le périodique Mon journal.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mamz'elle Phryné, 1900Coécrit avec Davin de Champclos.
 Âme de poupée, 1901Coécrit avec Davin de Champclos.
@@ -563,9 +579,43 @@
 Sur l'écran du cinéma, 1930Coécrit avec Aristide Fabre.
 Un train sifflait dans la nuit, 1935Coécrit avec Hervé de Peslouan.
 Le Maître du bonheur, 1938Coécrit avec Hervé de Peslouan.
-Mademoiselle Vert-Vert, 1940Coécrit avec Hervé de Peslouan.
-Nouvelles et contes pour enfants
-La Belle Histoire du prince Muguet, 1909 (lire en ligne sur Gallica)
+Mademoiselle Vert-Vert, 1940Coécrit avec Hervé de Peslouan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joseph_Jacquin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph_Jacquin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nouvelles et contes pour enfants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Belle Histoire du prince Muguet, 1909 (lire en ligne sur Gallica)
 La Vie à tire d'ailes, 1909
 Le Premier Homme de son espèce, 1912 (lire en ligne sur Gallica)
 Les Animaux chercheurs d'or, 1922 (lire en ligne sur Gallica)
